--- a/src/main/webapp/assets/excel/plan/Mining_Plan_4_2.xlsx
+++ b/src/main/webapp/assets/excel/plan/Mining_Plan_4_2.xlsx
@@ -23,9 +23,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
-  <si>
-    <t>Тайлан татаж авсан огноо:</t>
-  </si>
   <si>
     <t>Д/д</t>
   </si>
@@ -60,9 +57,6 @@
     <t>Ерөнхий мэдээлэл</t>
   </si>
   <si>
-    <t>Тайлангийн он:</t>
-  </si>
-  <si>
     <t>Төлөв</t>
   </si>
   <si>
@@ -93,10 +87,16 @@
     <t>Тайлбар</t>
   </si>
   <si>
-    <t>Тайлангийн маягт 4.2 Баяжуулалтын технологи, бүтээгдэхүүн үйлдвэрлэл</t>
+    <t>Тодотгол</t>
   </si>
   <si>
-    <t>Тодотгол</t>
+    <t>Төлөвлөгөөний маягт 4.2 Баяжуулалтын технологи, бүтээгдэхүүн үйлдвэрлэл</t>
+  </si>
+  <si>
+    <t>Он:</t>
+  </si>
+  <si>
+    <t>Татаж авсан огноо:</t>
   </si>
 </sst>
 </file>
@@ -291,11 +291,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -314,15 +323,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -596,7 +596,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -610,7 +610,7 @@
       <pane xSplit="4" ySplit="7" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="U1" sqref="U1:U1048576"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4:M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -629,142 +629,142 @@
   <sheetData>
     <row r="1" spans="1:121" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
     </row>
     <row r="2" spans="1:121" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="19"/>
+    </row>
+    <row r="3" spans="1:121" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="22"/>
+    </row>
+    <row r="4" spans="1:121" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="17"/>
+    </row>
+    <row r="5" spans="1:121" s="3" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="15"/>
-    </row>
-    <row r="3" spans="1:121" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="I5" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="N5" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="19"/>
-    </row>
-    <row r="4" spans="1:121" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
-        <v>11</v>
+      <c r="O5" s="17" t="s">
+        <v>16</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="16" t="s">
+      <c r="P5" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
-      <c r="U4" s="16"/>
-    </row>
-    <row r="5" spans="1:121" s="3" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
-        <v>1</v>
+      <c r="S5" s="17"/>
+      <c r="T5" s="18" t="s">
+        <v>20</v>
       </c>
-      <c r="B5" s="16" t="s">
-        <v>2</v>
+      <c r="U5" s="16" t="s">
+        <v>21</v>
       </c>
-      <c r="C5" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="16" t="s">
+    </row>
+    <row r="6" spans="1:121" s="3" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="K5" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="L5" s="16" t="s">
+      <c r="Q6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="M5" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="N5" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="O5" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="P5" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="S5" s="16"/>
-      <c r="T5" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="U5" s="24" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:121" s="3" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q6" s="13" t="s">
-        <v>17</v>
-      </c>
       <c r="R6" s="13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="S6" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
-      <c r="T6" s="23"/>
-      <c r="U6" s="24"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="16"/>
     </row>
     <row r="7" spans="1:121" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -827,7 +827,7 @@
       <c r="T7" s="4">
         <v>24</v>
       </c>
-      <c r="U7" s="25">
+      <c r="U7" s="15">
         <v>25</v>
       </c>
       <c r="V7" s="6"/>
@@ -66621,13 +66621,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="U5:U6"/>
-    <mergeCell ref="N4:U4"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="R5:S5"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="M5:M6"/>
     <mergeCell ref="L5:L6"/>
@@ -66644,6 +66637,13 @@
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="D5:D6"/>
+    <mergeCell ref="U5:U6"/>
+    <mergeCell ref="N4:U4"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="R5:S5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
